--- a/test_data/组织用户.xlsx
+++ b/test_data/组织用户.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8460" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="8010" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="创建组织" sheetId="6" r:id="rId1"/>
@@ -136,8 +136,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -156,8 +156,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,72 +278,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,57 +293,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -309,6 +309,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -321,13 +429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,43 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,109 +459,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,76 +518,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,8 +545,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -635,137 +635,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -776,9 +776,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1151,10 +1148,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1163,8 +1160,8 @@
     </row>
     <row r="2" customFormat="1" spans="1:4">
       <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" customFormat="1" spans="1:4">
@@ -1228,7 +1225,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1237,16 +1234,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:5">
       <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" customFormat="1" spans="1:5">
       <c r="A3" s="2">
@@ -1310,13 +1307,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
@@ -1349,8 +1346,8 @@
   <sheetPr/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1456,7 +1453,7 @@
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1561,7 +1558,7 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1573,27 +1570,27 @@
       <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>17327893153</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1602,22 +1599,22 @@
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>17327893153</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -1721,8 +1718,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>

--- a/test_data/组织用户.xlsx
+++ b/test_data/组织用户.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="创建组织" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -51,9 +51,6 @@
     <t>test_org_edited</t>
   </si>
   <si>
-    <t>test_org2_edited</t>
-  </si>
-  <si>
     <t>org_name</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
   </si>
   <si>
     <t>["ROLE_YYGLY","ROLE_YWGLY"]</t>
-  </si>
-  <si>
-    <t>租户_edited</t>
   </si>
   <si>
     <t>exsiting_org_name</t>
@@ -134,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -156,6 +150,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -164,6 +226,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -173,50 +243,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,11 +257,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,6 +272,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -254,45 +287,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -309,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,63 +508,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,6 +542,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -615,6 +582,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -623,10 +617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -635,133 +629,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,7 +1200,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1265,11 +1259,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
@@ -1293,8 +1287,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1320,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1328,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1362,34 +1356,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1413,16 +1407,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="G3" s="2">
         <v>17327893152</v>
@@ -1431,13 +1425,13 @@
         <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1448,16 +1442,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2">
         <v>17327893152</v>
@@ -1466,13 +1460,13 @@
         <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1501,16 +1495,19 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="3" max="3" width="18.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1518,31 +1515,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1565,13 +1562,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
         <v>17327893153</v>
@@ -1580,13 +1577,13 @@
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1594,16 +1591,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
         <v>17327893153</v>
@@ -1612,13 +1609,13 @@
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1658,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1684,7 +1681,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1698,7 +1695,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1718,8 +1715,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1734,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1760,7 +1757,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1774,7 +1771,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1809,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1829,13 +1826,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1843,13 +1840,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1884,10 +1881,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1903,7 +1900,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1914,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
